--- a/biology/Médecine/Polyconsommation/Polyconsommation.xlsx
+++ b/biology/Médecine/Polyconsommation/Polyconsommation.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F5"/>
+  <dimension ref="A1:H5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,12 +490,14 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">La polyconsommation est un mode de consommation de substances psychotropes, légales ou non, qui consiste à associer différents substances souvent afin d'en renforcer ou modifier les effets. Cette consommation ne relève pas d'un cadre médical. Elle n'est pas obligatoirement associée à la polytoxicomanie, qui est la dépendance simultanée à plusieurs drogues.
-Cette association peut s'effectuer du fait d'un usage régulier de plusieurs produits indépendamment les uns des autres ou du fait d'une consommation simultanée des produits[1].
+Cette association peut s'effectuer du fait d'un usage régulier de plusieurs produits indépendamment les uns des autres ou du fait d'une consommation simultanée des produits.
 Ce phénomène n'est pas récent mais il a pris une grande importance dans les années 1990. Il pose des problèmes sanitaires en augmentant les risques de surdose.
-Les motivations qui peuvent pousser à ce type de consommation sont[2] :
+Les motivations qui peuvent pousser à ce type de consommation sont :
 l'association traditionnelle ou culturelle de deux produits ;
 la recherche d'une optimisation des effets, en combinant des produits ayant les mêmes effets vécus comme positifs afin de les amplifier ;
 un équilibrage des effets, il s'agit de corriger les effets d'un produit par un autre afin d'adapter les effets au contexte ;
@@ -519,7 +531,9 @@
           <t>Interactions dangereuses</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">La consommation de plusieurs psychotropes en même temps peut comporter des risques graves, car leurs actions dans le cerveau et l'organisme peuvent se potentialiser entre elles, ou être contradictoires.
 Consommer simultanément plusieurs psychotropes ayant une action  dépressive sur le système nerveux central (opiacés/opioïdes, benzodiazépines,  alcool, barbituriques...) peut notamment augmenter le risque de dépression respiratoire. Elle peut être potentiellement mortelle selon la nature des drogues, leur quantité, la tolérance du sujet à ces drogues, et d'autres facteurs.
@@ -557,7 +571,9 @@
           <t>Planification</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t xml:space="preserve">Dans le concept général de l'usage de drogues multiples, plusieurs significations spécifiques du terme doivent être prises en compte. À un extrême se trouve l'utilisation planifiée, où les effets de plus d'un médicament sont pris pour un effet souhaité. D'autre part, l'utilisation de plusieurs substances de manière intensive et chaotique, simultanément ou consécutivement, dans de nombreux cas chaque drogue se substituant à une autre selon la disponibilité.
 </t>
@@ -588,10 +604,12 @@
           <t>Recherche</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Le phénomène fait l'objet d'une littérature académique établie[3].
-Une étude parmi les admissions en traitement a révélé qu'il est plus courant pour les jeunes de déclarer une polytoxicomanie[4].
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Le phénomène fait l'objet d'une littérature académique établie.
+Une étude parmi les admissions en traitement a révélé qu'il est plus courant pour les jeunes de déclarer une polytoxicomanie.
 </t>
         </is>
       </c>
